--- a/biology/Mycologie/Aspergillaceae/Aspergillaceae.xlsx
+++ b/biology/Mycologie/Aspergillaceae/Aspergillaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aspergillaceae sont une famille de champignons ascomycètes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aspergillus
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (1 avril 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (1 avril 2024) :
 Aspergillago Samson, Houbraken &amp; Frisvad, 2016
 Aspergillus P. Micheli ex Haller, 1768
 Capsulotheca Kamyschko, 1960
@@ -593,9 +609,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aspergillaceae Link, 1826[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aspergillaceae Link, 1826.
 </t>
         </is>
       </c>
